--- a/resultados/resultados.xlsx
+++ b/resultados/resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COSASBONITAS\CODE\tercero\DAA\Multi-knapsack\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51317E0F-DBC3-4F4C-9C67-E54AC1BEDBB3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E128AE7-AF73-40DA-82C4-CEEB459E36AB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{EDA40451-8F87-4A26-B115-20EBE4847EC9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{EDA40451-8F87-4A26-B115-20EBE4847EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Greedy" sheetId="1" r:id="rId1"/>
@@ -15166,15 +15166,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15199,6 +15199,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60014E01-5BF7-4C54-A591-CF7710085120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="6858000"/>
+          <a:ext cx="9928860" cy="6111240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15207,14 +15251,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15240,6 +15284,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12986</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>18818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B11024-5369-42FA-9D2A-ABAFC6491DC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5229225" y="6858000"/>
+          <a:ext cx="9156986" cy="6114818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15247,16 +15335,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>14285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15281,6 +15369,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6889</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>120925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E50A9B-9A32-4ED9-8DDC-0B0AB0408FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="6781800"/>
+          <a:ext cx="9150889" cy="6102625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15288,16 +15420,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15322,6 +15454,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31275</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>37108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828DEB2B-A2FD-4DCD-8306-F140AA088365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228975" y="6858000"/>
+          <a:ext cx="9175275" cy="6133108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15329,16 +15505,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15365,16 +15541,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15399,6 +15575,94 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>37372</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>18818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342FB74D-03F1-4FD7-BDBA-2CC391E33C40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12334875" y="381000"/>
+          <a:ext cx="9181372" cy="6114818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>12986</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>12721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31668CD0-6EC3-4979-A5AF-4232217184DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12334875" y="6667500"/>
+          <a:ext cx="9156986" cy="6108721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15406,16 +15670,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15438,6 +15702,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12986</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>37108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3481713-1CF3-41A4-A88F-EC0B52D36FD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="6858000"/>
+          <a:ext cx="9156986" cy="6133108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15875,7 +16183,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16334,8 +16642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC493411-FC09-44C0-9D2A-6896E70E1DCB}">
   <dimension ref="A1:E249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18955,8 +19263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D88E8D-61A8-41A6-9FE4-C67E45C1AC33}">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19966,8 +20274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7C5965-0AB9-4576-B2E0-384F1EBC9D18}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20487,8 +20795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A3A441-297E-4F0B-A2BE-95399E46FB40}">
   <dimension ref="A1:B559"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24928,8 +25236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD9DB64-5736-4F83-950B-55F72763EDAE}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
